--- a/natmiOut/OldD0/LR-pairs_lrc2p/Rtn4-Lingo1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Rtn4-Lingo1.xlsx
@@ -528,34 +528,34 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.1504655125689</v>
+        <v>63.211268</v>
       </c>
       <c r="H2">
-        <v>57.1504655125689</v>
+        <v>189.633804</v>
       </c>
       <c r="I2">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="J2">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.82066043543338</v>
+        <v>0.8412133333333333</v>
       </c>
       <c r="N2">
-        <v>0.82066043543338</v>
+        <v>2.52364</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>46.90112591276516</v>
+        <v>53.17416145850666</v>
       </c>
       <c r="R2">
-        <v>46.90112591276516</v>
+        <v>478.56745312656</v>
       </c>
       <c r="S2">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="T2">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.0001042650496</v>
+        <v>43.30706799999999</v>
       </c>
       <c r="H3">
-        <v>43.0001042650496</v>
+        <v>129.921204</v>
       </c>
       <c r="I3">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="J3">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.82066043543338</v>
+        <v>0.8412133333333333</v>
       </c>
       <c r="N3">
-        <v>0.82066043543338</v>
+        <v>2.52364</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>35.28848428983635</v>
+        <v>36.43048302917332</v>
       </c>
       <c r="R3">
-        <v>35.28848428983635</v>
+        <v>327.87434726256</v>
       </c>
       <c r="S3">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="T3">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.8025940227154</v>
+        <v>21.891734</v>
       </c>
       <c r="H4">
-        <v>21.8025940227154</v>
+        <v>65.675202</v>
       </c>
       <c r="I4">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
       <c r="J4">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.82066043543338</v>
+        <v>0.8412133333333333</v>
       </c>
       <c r="N4">
-        <v>0.82066043543338</v>
+        <v>2.52364</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>17.89252630425883</v>
+        <v>18.41561853058667</v>
       </c>
       <c r="R4">
-        <v>17.89252630425883</v>
+        <v>165.74056677528</v>
       </c>
       <c r="S4">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
       <c r="T4">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
     </row>
   </sheetData>
